--- a/assets/document/data-latih/Book2.xlsx
+++ b/assets/document/data-latih/Book2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arlan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8549F75-13C0-4422-B3C8-8805860ACFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FF7A1E0-FC20-4362-A384-17E7901D41C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3090" windowWidth="29040" windowHeight="16080" xr2:uid="{253F36ED-2434-4718-A1FE-AF828FA7ED75}"/>
+    <workbookView xWindow="-26475" yWindow="-1800" windowWidth="20700" windowHeight="11565" xr2:uid="{E0E78E9F-4B5D-4C34-B3D1-A6995E9E1B10}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -564,7 +564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{742E45B7-1DD3-4075-BFF3-1A36703A8D5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2A78EA-6CEE-4E42-9256-D03632AE92C3}">
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
